--- a/Business Analysis/data/user_12.xlsx
+++ b/Business Analysis/data/user_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5802D1A3-EB48-452C-9C1A-3F19B65FF7E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785AA621-9155-4604-BD4C-3C699A41EFC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="117">
   <si>
     <t>Spiderbait - Black Betty</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>bored</t>
-  </si>
-  <si>
-    <t>annoying</t>
   </si>
   <si>
     <t>pleased</t>
@@ -1217,7 +1214,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1230,34 +1227,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>115</v>
-      </c>
-      <c r="G1" t="s">
-        <v>116</v>
       </c>
       <c r="H1" t="s">
         <v>32</v>
       </c>
       <c r="I1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" t="s">
         <v>108</v>
-      </c>
-      <c r="J1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1286,10 +1283,10 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
         <v>53</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1318,10 +1315,10 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1350,10 +1347,10 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
         <v>57</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1382,10 +1379,10 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
         <v>59</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1414,10 +1411,10 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
         <v>61</v>
-      </c>
-      <c r="J6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1446,10 +1443,10 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
         <v>63</v>
-      </c>
-      <c r="J7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1472,16 +1469,16 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8">
         <v>12</v>
       </c>
       <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
         <v>65</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1504,16 +1501,16 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9">
         <v>12</v>
       </c>
       <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
         <v>67</v>
-      </c>
-      <c r="J9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1536,16 +1533,16 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10">
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1574,10 +1571,10 @@
         <v>12</v>
       </c>
       <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
         <v>70</v>
-      </c>
-      <c r="J11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1606,10 +1603,10 @@
         <v>12</v>
       </c>
       <c r="I12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s">
         <v>72</v>
-      </c>
-      <c r="J12" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1638,10 +1635,10 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s">
         <v>74</v>
-      </c>
-      <c r="J13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1670,10 +1667,10 @@
         <v>12</v>
       </c>
       <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
         <v>76</v>
-      </c>
-      <c r="J14" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1687,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
@@ -1696,16 +1693,16 @@
         <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H15">
         <v>12</v>
       </c>
       <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" t="s">
         <v>78</v>
-      </c>
-      <c r="J15" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1734,10 +1731,10 @@
         <v>12</v>
       </c>
       <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" t="s">
         <v>80</v>
-      </c>
-      <c r="J16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1766,10 +1763,10 @@
         <v>12</v>
       </c>
       <c r="I17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" t="s">
         <v>82</v>
-      </c>
-      <c r="J17" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1798,10 +1795,10 @@
         <v>12</v>
       </c>
       <c r="I18" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" t="s">
         <v>84</v>
-      </c>
-      <c r="J18" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1815,7 +1812,7 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
@@ -1830,10 +1827,10 @@
         <v>12</v>
       </c>
       <c r="I19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" t="s">
         <v>86</v>
-      </c>
-      <c r="J19" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1847,7 +1844,7 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
@@ -1862,10 +1859,10 @@
         <v>12</v>
       </c>
       <c r="I20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" t="s">
         <v>88</v>
-      </c>
-      <c r="J20" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1879,7 +1876,7 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
         <v>35</v>
@@ -1888,16 +1885,16 @@
         <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H21">
         <v>12</v>
       </c>
       <c r="I21" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" t="s">
         <v>90</v>
-      </c>
-      <c r="J21" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1911,7 +1908,7 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
         <v>35</v>
@@ -1926,10 +1923,10 @@
         <v>12</v>
       </c>
       <c r="I22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" t="s">
         <v>92</v>
-      </c>
-      <c r="J22" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1952,16 +1949,16 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H23">
         <v>12</v>
       </c>
       <c r="I23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" t="s">
         <v>94</v>
-      </c>
-      <c r="J23" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1975,7 +1972,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
         <v>35</v>
@@ -1984,16 +1981,16 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H24">
         <v>12</v>
       </c>
       <c r="I24" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" t="s">
         <v>96</v>
-      </c>
-      <c r="J24" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2007,7 +2004,7 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
         <v>35</v>
@@ -2022,10 +2019,10 @@
         <v>12</v>
       </c>
       <c r="I25" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" t="s">
         <v>98</v>
-      </c>
-      <c r="J25" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2039,7 +2036,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -2054,10 +2051,10 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" t="s">
         <v>100</v>
-      </c>
-      <c r="J26" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2086,10 +2083,10 @@
         <v>12</v>
       </c>
       <c r="I27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" t="s">
         <v>102</v>
-      </c>
-      <c r="J27" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2118,10 +2115,10 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" t="s">
         <v>104</v>
-      </c>
-      <c r="J28" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2135,7 +2132,7 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -2150,10 +2147,10 @@
         <v>12</v>
       </c>
       <c r="I29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" t="s">
         <v>106</v>
-      </c>
-      <c r="J29" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Business Analysis/data/user_12.xlsx
+++ b/Business Analysis/data/user_12.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epistimi\Documents\DataSience\Multimodal\emotion_based_music_recomendation\Business Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785AA621-9155-4604-BD4C-3C699A41EFC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
-    <sheet name="Template emotion_datasheet3_use" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -376,7 +378,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -901,8 +903,36 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1210,22 +1240,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -1257,7 +1287,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1289,7 +1319,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1321,7 +1351,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1353,7 +1383,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1385,7 +1415,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1417,7 +1447,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1449,7 +1479,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1481,7 +1511,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1513,7 +1543,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1545,7 +1575,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1577,7 +1607,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1609,7 +1639,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1641,7 +1671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1673,7 +1703,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1705,7 +1735,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1737,7 +1767,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1769,7 +1799,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1801,7 +1831,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1833,7 +1863,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1865,7 +1895,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1897,7 +1927,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1929,7 +1959,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1961,7 +1991,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1993,7 +2023,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2025,7 +2055,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2057,7 +2087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2089,7 +2119,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2121,7 +2151,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
